--- a/xl/entropy_example.xlsx
+++ b/xl/entropy_example.xlsx
@@ -1,38 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\Source\git\fastai\courses\dl1\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\git\course22\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31480D60-C78A-45FF-9814-E8ECE5101D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="21570" windowHeight="11780"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="softmax" sheetId="2" r:id="rId1"/>
     <sheet name="entropy" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>isCat</t>
   </si>
   <si>
-    <t>Preds</t>
-  </si>
-  <si>
     <t>output</t>
   </si>
   <si>
@@ -63,14 +71,42 @@
     <t>index</t>
   </si>
   <si>
-    <t>sigmoid</t>
+    <t>PredCat</t>
+  </si>
+  <si>
+    <t>isNotCat</t>
+  </si>
+  <si>
+    <t>PredNotCat</t>
+  </si>
+  <si>
+    <t>x-entropy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Image: Things that confused me about cross-entropy by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chris Said</t>
+    </r>
+  </si>
+  <si>
+    <t>https://chris-said.io/2020/12/26/two-things-that-confused-me-about-cross-entropy/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +116,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,15 +156,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -126,6 +181,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>195384</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>29309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390996</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE987ED-C0EE-849B-AAF5-6AF52F83B6F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="805961" y="1514232"/>
+          <a:ext cx="2027343" cy="1240692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>243903</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>59103</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FBE2E82-F5AD-30CD-61FC-C3CA089D8574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="243903" y="2364155"/>
+          <a:ext cx="4772598" cy="2892179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,298 +594,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
-        <f ca="1">RAND()*10-5</f>
-        <v>-4.2618051947718252</v>
-      </c>
-      <c r="C2" s="2">
-        <f ca="1">EXP(B2)</f>
-        <v>1.4096831900219478E-2</v>
-      </c>
-      <c r="D2" s="2">
-        <f ca="1">C2/$C$7</f>
-        <v>1.8330663393083726E-4</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f ca="1">C2/(1+C2)</f>
-        <v>1.3900873621510844E-2</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <f t="shared" ref="B3:B6" ca="1" si="0">RAND()*10-5</f>
-        <v>-2.1568391136045397</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C6" ca="1" si="1">EXP(B3)</f>
-        <v>0.1156902273700378</v>
-      </c>
-      <c r="D3" s="2">
-        <f ca="1">C3/$C$7</f>
-        <v>1.504365399828927E-3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G6" ca="1" si="2">C3/(1+C3)</f>
-        <v>0.10369386101261166</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.3245693962656073</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>75.532981072355142</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D3:D6" ca="1" si="3">C4/$C$7</f>
-        <v>0.98218497667688687</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.98693373776915094</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.97586016721633762</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.3768680445663482</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.9005629899352412E-3</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.27371398882675413</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.14690752671951213</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.86337381273369651</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1226788299418035E-2</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.46333902882700073</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
-        <f ca="1">SUM(C2:C6)</f>
-        <v>76.903009988925447</v>
-      </c>
-      <c r="D7" s="2">
-        <f ca="1">SUM(D2:D6)</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-4.8852247804470919</v>
+      </c>
+      <c r="C2" s="2">
+        <f>EXP(B2)</f>
+        <v>7.5574248097754629E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2/$C$7</f>
+        <v>4.9134813249913261E-4</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.5974728206314666</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C6" si="0">EXP(B3)</f>
+        <v>13.429755711815378</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3/$C$7</f>
+        <v>0.87313940330371576</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2">
+      <c r="F3">
         <v>1</v>
       </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.59166497570264198</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8069945141235662</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D6" si="1">C4/$C$7</f>
+        <v>0.11748226443514836</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-2.0689445222722602</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12631903829949859</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>8.2126683532811866E-3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-4.5686791738679853</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0371649820615685E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>6.7431577535547978E-4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <f>SUM(C2:C6)</f>
+        <v>15.380998338868835</v>
+      </c>
+      <c r="D7" s="2">
+        <f>SUM(D2:D6)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.9134813249913261E-4</v>
+      </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <f>-B2*LOG(C2)-(1-B2)*LOG(1-C2)</f>
-        <v>0.3010299956639812</v>
-      </c>
-      <c r="E2">
-        <f>-IF(B2=1,LOG(C2),LOG(1-C2))</f>
-        <v>0.3010299956639812</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3">
+        <f>C2*LOG(B2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.87313940330371576</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0.98</v>
-      </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">-B3*LOG(C3)-(1-B3)*LOG(1-C3)</f>
-        <v>8.7739243075051505E-3</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E6" si="1">-IF(B3=1,LOG(C3),LOG(1-C3))</f>
-        <v>8.7739243075051505E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>0</v>
+        <f t="shared" ref="D3:D6" si="0">C3*LOG(B3)</f>
+        <v>-5.8916412362809562E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.11748226443514836</v>
       </c>
       <c r="C4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8.2126683532811866E-3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.7431577535547978E-4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+      <c r="D7">
+        <f>-SUM(D2:D6)</f>
+        <v>5.8916412362809562E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="C27">
+        <f>1-B27</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <f>1-D27</f>
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <f>-B27*LOG(D27)-C27*LOG(E27)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="G27">
+        <f>-IF(B27=1,LOG(D27),LOG(1-D27))</f>
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C31" si="1">1-B28</f>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0.98</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:E31" si="2">1-D28</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F31" si="3">-B28*LOG(D28)-C28*LOG(E28)</f>
+        <v>8.7739243075051505E-3</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:G31" si="4">-IF(B28=1,LOG(D28),LOG(1-D28))</f>
+        <v>8.7739243075051505E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+      <c r="D29">
+        <v>0.9</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>0.5</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="E5">
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <f t="shared" si="1"/>
-        <v>0.3010299956639812</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>0.9</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
         <v>4.5757490560675115E-2</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
+      <c r="G31">
+        <f t="shared" si="4"/>
         <v>4.5757490560675115E-2</v>
       </c>
     </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <f>-SUM(F27:F31)</f>
+        <v>-1.6565914061961426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A35" r:id="rId1" xr:uid="{421F8D76-765D-483F-B83B-3A07320070F5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/xl/entropy_example.xlsx
+++ b/xl/entropy_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\git\course22\xl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andraskuti/Documents/git/fastai/course22/xl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31480D60-C78A-45FF-9814-E8ECE5101D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36870D7-08C2-284E-AD42-BD369F6D0F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="softmax" sheetId="2" r:id="rId1"/>
@@ -599,9 +599,9 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -619,7 +619,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -685,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -707,7 +707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -729,7 +729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
@@ -750,14 +750,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -768,7 +770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -798,7 +800,7 @@
         <v>-5.8916412362809562E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -813,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -828,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -843,14 +845,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="D7">
         <f>-SUM(D2:D6)</f>
         <v>5.8916412362809562E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,7 +866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>1</v>
       </c>
@@ -880,15 +882,15 @@
         <v>0.5</v>
       </c>
       <c r="F27">
-        <f>-B27*LOG(D27)-C27*LOG(E27)</f>
-        <v>0.3010299956639812</v>
+        <f>B27*LOG(D27)+C27*LOG(E27)</f>
+        <v>-0.3010299956639812</v>
       </c>
       <c r="G27">
-        <f>-IF(B27=1,LOG(D27),LOG(1-D27))</f>
-        <v>0.3010299956639812</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+        <f>IF(B27=1,LOG(D27),LOG(1-D27))</f>
+        <v>-0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>1</v>
       </c>
@@ -904,15 +906,15 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28:F31" si="3">-B28*LOG(D28)-C28*LOG(E28)</f>
-        <v>8.7739243075051505E-3</v>
+        <f t="shared" ref="F28:F31" si="3">B28*LOG(D28)+C28*LOG(E28)</f>
+        <v>-8.7739243075051505E-3</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28:G31" si="4">-IF(B28=1,LOG(D28),LOG(1-D28))</f>
-        <v>8.7739243075051505E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G28:G31" si="4">IF(B28=1,LOG(D28),LOG(1-D28))</f>
+        <v>-8.7739243075051505E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>0</v>
       </c>
@@ -929,14 +931,14 @@
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>0</v>
       </c>
@@ -953,14 +955,14 @@
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
-        <v>0.3010299956639812</v>
+        <v>-0.3010299956639812</v>
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
-        <v>0.3010299956639812</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+        <v>-0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>1</v>
       </c>
@@ -977,25 +979,25 @@
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>4.5757490560675115E-2</v>
+        <v>-4.5757490560675115E-2</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
-        <v>4.5757490560675115E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+        <v>-4.5757490560675115E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F32">
         <f>-SUM(F27:F31)</f>
-        <v>-1.6565914061961426</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>1.6565914061961426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
